--- a/converter/data/xlsx/9.5.B_SMJENA.XLSX
+++ b/converter/data/xlsx/9.5.B_SMJENA.XLSX
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1909E73-87D5-4AF1-BE75-74E3047321D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="109">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -425,8 +431,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3291,6 +3297,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3303,62 +3351,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3402,7 +3408,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3468,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04DFE55-43FF-42F9-AB3A-26CDFD059771}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04DFE55-43FF-42F9-AB3A-26CDFD059771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3543,7 +3549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3575,9 +3581,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3609,6 +3633,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3784,132 +3826,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Y66" sqref="Y66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="31" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="31" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.28515625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.28515625" style="1"/>
+    <col min="35" max="35" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.33203125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="478" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="474" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
-      <c r="K1" s="478"/>
-      <c r="L1" s="478"/>
-      <c r="M1" s="478"/>
-      <c r="N1" s="478"/>
-      <c r="O1" s="478"/>
-      <c r="P1" s="478"/>
-      <c r="Q1" s="478"/>
-      <c r="R1" s="478"/>
-      <c r="S1" s="478"/>
-      <c r="T1" s="478"/>
-      <c r="U1" s="478"/>
-      <c r="V1" s="478"/>
-      <c r="W1" s="478"/>
-      <c r="X1" s="478"/>
-      <c r="Y1" s="478"/>
-      <c r="Z1" s="478"/>
-      <c r="AA1" s="478"/>
-      <c r="AB1" s="478"/>
-      <c r="AC1" s="478"/>
-      <c r="AD1" s="478"/>
-      <c r="AE1" s="478"/>
-      <c r="AF1" s="478"/>
-      <c r="AG1" s="478"/>
-      <c r="AH1" s="478"/>
-      <c r="AI1" s="478"/>
-      <c r="AJ1" s="478"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="474"/>
+      <c r="C1" s="474"/>
+      <c r="D1" s="474"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="474"/>
+      <c r="J1" s="474"/>
+      <c r="K1" s="474"/>
+      <c r="L1" s="474"/>
+      <c r="M1" s="474"/>
+      <c r="N1" s="474"/>
+      <c r="O1" s="474"/>
+      <c r="P1" s="474"/>
+      <c r="Q1" s="474"/>
+      <c r="R1" s="474"/>
+      <c r="S1" s="474"/>
+      <c r="T1" s="474"/>
+      <c r="U1" s="474"/>
+      <c r="V1" s="474"/>
+      <c r="W1" s="474"/>
+      <c r="X1" s="474"/>
+      <c r="Y1" s="474"/>
+      <c r="Z1" s="474"/>
+      <c r="AA1" s="474"/>
+      <c r="AB1" s="474"/>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
+      <c r="AH1" s="474"/>
+      <c r="AI1" s="474"/>
+      <c r="AJ1" s="474"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="479" t="s">
+      <c r="B2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="481"/>
-      <c r="I2" s="482" t="s">
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
+      <c r="E2" s="476"/>
+      <c r="F2" s="476"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="477"/>
+      <c r="I2" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="480"/>
-      <c r="K2" s="480"/>
-      <c r="L2" s="480"/>
-      <c r="M2" s="480"/>
-      <c r="N2" s="480"/>
-      <c r="O2" s="481"/>
-      <c r="P2" s="479" t="s">
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
+      <c r="L2" s="476"/>
+      <c r="M2" s="476"/>
+      <c r="N2" s="476"/>
+      <c r="O2" s="477"/>
+      <c r="P2" s="475" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="480"/>
-      <c r="R2" s="480"/>
-      <c r="S2" s="480"/>
-      <c r="T2" s="480"/>
-      <c r="U2" s="480"/>
-      <c r="V2" s="481"/>
-      <c r="W2" s="482" t="s">
+      <c r="Q2" s="476"/>
+      <c r="R2" s="476"/>
+      <c r="S2" s="476"/>
+      <c r="T2" s="476"/>
+      <c r="U2" s="476"/>
+      <c r="V2" s="477"/>
+      <c r="W2" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="480"/>
-      <c r="Y2" s="480"/>
-      <c r="Z2" s="480"/>
-      <c r="AA2" s="480"/>
-      <c r="AB2" s="480"/>
-      <c r="AC2" s="481"/>
-      <c r="AD2" s="483" t="s">
+      <c r="X2" s="476"/>
+      <c r="Y2" s="476"/>
+      <c r="Z2" s="476"/>
+      <c r="AA2" s="476"/>
+      <c r="AB2" s="476"/>
+      <c r="AC2" s="477"/>
+      <c r="AD2" s="479" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="484"/>
-      <c r="AF2" s="484"/>
-      <c r="AG2" s="484"/>
-      <c r="AH2" s="484"/>
-      <c r="AI2" s="484"/>
-      <c r="AJ2" s="485"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="480"/>
+      <c r="AF2" s="480"/>
+      <c r="AG2" s="480"/>
+      <c r="AH2" s="480"/>
+      <c r="AI2" s="480"/>
+      <c r="AJ2" s="481"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>71</v>
       </c>
@@ -4095,7 +4137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
         <v>72</v>
       </c>
@@ -4108,12 +4150,8 @@
       <c r="F5" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>77</v>
-      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="28" t="s">
         <v>53</v>
       </c>
@@ -4167,7 +4205,7 @@
       </c>
       <c r="AJ5" s="36"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="235" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4269,7 @@
       </c>
       <c r="AJ6" s="38"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="293" t="s">
         <v>49</v>
       </c>
@@ -4297,7 +4335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -4375,7 +4413,7 @@
       <c r="AI8" s="11"/>
       <c r="AJ8" s="30"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
@@ -4449,7 +4487,7 @@
       <c r="AI9" s="35"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="235" t="s">
         <v>8</v>
       </c>
@@ -4499,7 +4537,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="38"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="236" t="s">
         <v>16</v>
       </c>
@@ -4559,7 +4597,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="236" t="s">
         <v>66</v>
       </c>
@@ -4603,7 +4641,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="236" t="s">
         <v>13</v>
       </c>
@@ -4660,7 +4698,7 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="93"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="237" t="s">
         <v>11</v>
       </c>
@@ -4717,7 +4755,7 @@
       </c>
       <c r="AK14" s="93"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="237" t="s">
         <v>32</v>
       </c>
@@ -4772,7 +4810,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="93"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="237" t="s">
         <v>41</v>
       </c>
@@ -4837,7 +4875,7 @@
       </c>
       <c r="AK16" s="93"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="234" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4916,7 @@
       <c r="AJ17" s="40"/>
       <c r="AK17" s="93"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -4938,7 +4976,7 @@
       <c r="AK18" s="93"/>
       <c r="AL18" s="93"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="234" t="s">
         <v>50</v>
       </c>
@@ -5013,7 +5051,7 @@
       </c>
       <c r="AM19" s="93"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="234" t="s">
         <v>17</v>
       </c>
@@ -5063,7 +5101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="234" t="s">
         <v>102</v>
       </c>
@@ -5126,7 +5164,7 @@
       <c r="AJ21" s="24"/>
       <c r="AL21" s="93"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="234" t="s">
         <v>65</v>
       </c>
@@ -5191,7 +5229,7 @@
       <c r="AJ22" s="24"/>
       <c r="AL22" s="93"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="235" t="s">
         <v>33</v>
       </c>
@@ -5269,7 +5307,7 @@
       <c r="AI23" s="20"/>
       <c r="AJ23" s="38"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="222" t="s">
         <v>28</v>
       </c>
@@ -5355,7 +5393,7 @@
       <c r="AK24" s="156"/>
       <c r="AL24" s="156"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="236" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5457,7 @@
       <c r="AK25" s="157"/>
       <c r="AL25" s="158"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="223" t="s">
         <v>27</v>
       </c>
@@ -5502,7 +5540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="236" t="s">
         <v>26</v>
       </c>
@@ -5581,7 +5619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="237" t="s">
         <v>14</v>
       </c>
@@ -5654,7 +5692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="234" t="s">
         <v>40</v>
       </c>
@@ -5721,7 +5759,7 @@
       <c r="AJ29" s="48"/>
       <c r="AK29" s="118"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="234" t="s">
         <v>6</v>
       </c>
@@ -5772,7 +5810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>9</v>
       </c>
@@ -5815,7 +5853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
@@ -5928,7 +5966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="234" t="s">
         <v>12</v>
       </c>
@@ -6017,7 +6055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="235" t="s">
         <v>7</v>
       </c>
@@ -6096,7 +6134,7 @@
       <c r="AJ34" s="190"/>
       <c r="AK34" s="117"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="294" t="s">
         <v>51</v>
       </c>
@@ -6178,7 +6216,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
@@ -6266,7 +6304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="234" t="s">
         <v>42</v>
       </c>
@@ -6346,7 +6384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="234" t="s">
         <v>30</v>
       </c>
@@ -6398,7 +6436,7 @@
       <c r="AI38" s="35"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="235" t="s">
         <v>43</v>
       </c>
@@ -6464,7 +6502,7 @@
       </c>
       <c r="AJ39" s="142"/>
     </row>
-    <row r="40" spans="1:37" ht="22.15" customHeight="1">
+    <row r="40" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="237" t="s">
         <v>15</v>
       </c>
@@ -6525,7 +6563,7 @@
       </c>
       <c r="AK40" s="90"/>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="234" t="s">
         <v>59</v>
       </c>
@@ -6580,7 +6618,7 @@
       </c>
       <c r="AK41" s="90"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>64</v>
       </c>
@@ -6675,7 +6713,7 @@
       </c>
       <c r="AK42" s="90"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="236" t="s">
         <v>106</v>
       </c>
@@ -6723,7 +6761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="221" t="s">
         <v>73</v>
       </c>
@@ -6801,7 +6839,7 @@
       <c r="AI44" s="29"/>
       <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -6859,7 +6897,7 @@
       <c r="AI45" s="439"/>
       <c r="AJ45" s="442"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="160" t="s">
         <v>89</v>
       </c>
@@ -6938,7 +6976,7 @@
       <c r="AJ46" s="172"/>
       <c r="AK46" s="93"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="434" t="s">
         <v>90</v>
       </c>
@@ -6987,7 +7025,7 @@
       <c r="AJ47" s="172"/>
       <c r="AK47" s="93"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="434" t="s">
         <v>82</v>
       </c>
@@ -7034,7 +7072,7 @@
       </c>
       <c r="AK48" s="93"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="169" t="s">
         <v>91</v>
       </c>
@@ -7105,7 +7143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="434" t="s">
         <v>92</v>
       </c>
@@ -7158,7 +7196,7 @@
       </c>
       <c r="AK50" s="216"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="169" t="s">
         <v>88</v>
       </c>
@@ -7259,7 +7297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>93</v>
       </c>
@@ -7359,7 +7397,7 @@
       </c>
       <c r="AL52" s="93"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>94</v>
       </c>
@@ -7458,19 +7496,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="435" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="472" t="s">
+      <c r="B54" s="468" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="473"/>
-      <c r="D54" s="473"/>
-      <c r="E54" s="473"/>
-      <c r="F54" s="473"/>
-      <c r="G54" s="473"/>
-      <c r="H54" s="474"/>
+      <c r="C54" s="469"/>
+      <c r="D54" s="469"/>
+      <c r="E54" s="469"/>
+      <c r="F54" s="469"/>
+      <c r="G54" s="469"/>
+      <c r="H54" s="470"/>
       <c r="I54" s="107"/>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
@@ -7515,7 +7553,7 @@
       <c r="AJ54" s="77"/>
       <c r="AK54" s="93"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>96</v>
       </c>
@@ -7596,7 +7634,7 @@
       </c>
       <c r="AK55" s="93"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="234" t="s">
         <v>79</v>
       </c>
@@ -7630,18 +7668,18 @@
       <c r="AA56" s="215"/>
       <c r="AB56" s="215"/>
       <c r="AC56" s="282"/>
-      <c r="AD56" s="475" t="s">
+      <c r="AD56" s="471" t="s">
         <v>105</v>
       </c>
-      <c r="AE56" s="476"/>
-      <c r="AF56" s="476"/>
-      <c r="AG56" s="476"/>
-      <c r="AH56" s="476"/>
-      <c r="AI56" s="476"/>
-      <c r="AJ56" s="477"/>
+      <c r="AE56" s="472"/>
+      <c r="AF56" s="472"/>
+      <c r="AG56" s="472"/>
+      <c r="AH56" s="472"/>
+      <c r="AI56" s="472"/>
+      <c r="AJ56" s="473"/>
       <c r="AK56" s="93"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="467" t="s">
         <v>108</v>
       </c>
@@ -7686,7 +7724,7 @@
       <c r="AJ57" s="466"/>
       <c r="AK57" s="93"/>
     </row>
-    <row r="58" spans="1:38" ht="20.25" customHeight="1">
+    <row r="58" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>95</v>
       </c>
@@ -7783,7 +7821,7 @@
       </c>
       <c r="AK58" s="94"/>
     </row>
-    <row r="59" spans="1:38" ht="13.5" thickBot="1">
+    <row r="59" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
@@ -7820,61 +7858,66 @@
       <c r="AI59" s="57"/>
       <c r="AJ59" s="57"/>
     </row>
-    <row r="60" spans="1:38" ht="21" thickBot="1">
+    <row r="60" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="468" t="s">
+      <c r="B60" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="469"/>
-      <c r="D60" s="469"/>
-      <c r="E60" s="469"/>
-      <c r="F60" s="469"/>
-      <c r="G60" s="469"/>
-      <c r="H60" s="471"/>
-      <c r="I60" s="468" t="s">
+      <c r="C60" s="483"/>
+      <c r="D60" s="483"/>
+      <c r="E60" s="483"/>
+      <c r="F60" s="483"/>
+      <c r="G60" s="483"/>
+      <c r="H60" s="485"/>
+      <c r="I60" s="482" t="s">
         <v>98</v>
       </c>
-      <c r="J60" s="469"/>
-      <c r="K60" s="469"/>
-      <c r="L60" s="469"/>
-      <c r="M60" s="469"/>
-      <c r="N60" s="469"/>
-      <c r="O60" s="471"/>
-      <c r="P60" s="468" t="s">
+      <c r="J60" s="483"/>
+      <c r="K60" s="483"/>
+      <c r="L60" s="483"/>
+      <c r="M60" s="483"/>
+      <c r="N60" s="483"/>
+      <c r="O60" s="485"/>
+      <c r="P60" s="482" t="s">
         <v>99</v>
       </c>
-      <c r="Q60" s="469"/>
-      <c r="R60" s="469"/>
-      <c r="S60" s="469"/>
-      <c r="T60" s="469"/>
-      <c r="U60" s="469"/>
-      <c r="V60" s="471"/>
-      <c r="W60" s="468" t="s">
+      <c r="Q60" s="483"/>
+      <c r="R60" s="483"/>
+      <c r="S60" s="483"/>
+      <c r="T60" s="483"/>
+      <c r="U60" s="483"/>
+      <c r="V60" s="485"/>
+      <c r="W60" s="482" t="s">
         <v>100</v>
       </c>
-      <c r="X60" s="469"/>
-      <c r="Y60" s="469"/>
-      <c r="Z60" s="469"/>
-      <c r="AA60" s="469"/>
-      <c r="AB60" s="469"/>
-      <c r="AC60" s="471"/>
-      <c r="AD60" s="468" t="s">
+      <c r="X60" s="483"/>
+      <c r="Y60" s="483"/>
+      <c r="Z60" s="483"/>
+      <c r="AA60" s="483"/>
+      <c r="AB60" s="483"/>
+      <c r="AC60" s="485"/>
+      <c r="AD60" s="482" t="s">
         <v>103</v>
       </c>
-      <c r="AE60" s="469"/>
-      <c r="AF60" s="469"/>
-      <c r="AG60" s="469"/>
-      <c r="AH60" s="469"/>
-      <c r="AI60" s="469"/>
-      <c r="AJ60" s="470"/>
-    </row>
-    <row r="64" spans="1:38">
+      <c r="AE60" s="483"/>
+      <c r="AF60" s="483"/>
+      <c r="AG60" s="483"/>
+      <c r="AH60" s="483"/>
+      <c r="AI60" s="483"/>
+      <c r="AJ60" s="484"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O64" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AD60:AJ60"/>
+    <mergeCell ref="W60:AC60"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:O60"/>
+    <mergeCell ref="P60:V60"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="AD56:AJ56"/>
     <mergeCell ref="A1:AJ1"/>
@@ -7883,11 +7926,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AD60:AJ60"/>
-    <mergeCell ref="W60:AC60"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:O60"/>
-    <mergeCell ref="P60:V60"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7899,30 +7937,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="399"/>
-    <col min="2" max="2" width="16.42578125" style="399" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="399" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="399" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="399"/>
+    <col min="1" max="1" width="8.6640625" style="399"/>
+    <col min="2" max="2" width="16.44140625" style="399" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="399" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="399" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="399"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="486" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="486"/>
       <c r="D1" s="486"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="405"/>
       <c r="C2" s="79" t="s">
         <v>20</v>
@@ -7931,12 +7969,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="400"/>
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="165"/>
       <c r="C4" s="79" t="s">
         <v>20</v>
@@ -7945,12 +7983,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="400"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="124"/>
       <c r="C6" s="79" t="s">
         <v>20</v>
@@ -7959,12 +7997,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="400"/>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="125"/>
       <c r="C8" s="79" t="s">
         <v>20</v>
@@ -7973,12 +8011,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="400"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="81"/>
       <c r="C10" s="79" t="s">
         <v>20</v>
@@ -7987,12 +8025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="126"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="199"/>
       <c r="C12" s="79" t="s">
         <v>20</v>
@@ -8001,12 +8039,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="126"/>
       <c r="C13" s="195"/>
       <c r="D13" s="80"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="403"/>
       <c r="C14" s="79" t="s">
         <v>20</v>
@@ -8016,12 +8054,12 @@
       </c>
       <c r="F14" s="402"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="401"/>
       <c r="C15" s="79"/>
       <c r="D15" s="127"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="128"/>
       <c r="C16" s="79" t="s">
         <v>20</v>
@@ -8030,12 +8068,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="400"/>
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="166"/>
       <c r="C18" s="79" t="s">
         <v>20</v>
@@ -8044,12 +8082,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="400"/>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="82"/>
       <c r="C20" s="79" t="s">
         <v>20</v>
@@ -8058,12 +8096,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="400"/>
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="143"/>
       <c r="C22" s="79" t="s">
         <v>20</v>
@@ -8072,12 +8110,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="400"/>
       <c r="C23" s="79"/>
       <c r="D23" s="80"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="83"/>
       <c r="C24" s="79" t="s">
         <v>20</v>
@@ -8086,12 +8124,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="400"/>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="84"/>
       <c r="C26" s="79" t="s">
         <v>20</v>
@@ -8100,12 +8138,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="400"/>
       <c r="C27" s="400"/>
       <c r="D27" s="80"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1">
+    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85"/>
       <c r="C28" s="79" t="s">
         <v>20</v>
@@ -8114,41 +8152,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="400"/>
       <c r="C29" s="400"/>
       <c r="D29" s="400"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="129"/>
       <c r="C30" s="400"/>
       <c r="D30" s="80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="400"/>
       <c r="C31" s="400"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="86"/>
       <c r="C32" s="400"/>
       <c r="D32" s="80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="400"/>
       <c r="C33" s="400"/>
       <c r="D33" s="400"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="400"/>
       <c r="C34" s="400"/>
       <c r="D34" s="400"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="130"/>
       <c r="C35" s="400"/>
       <c r="D35" s="80" t="s">
